--- a/Экономика/1.4. Определение стоимости машиночаса работы ЭВМ.xlsx
+++ b/Экономика/1.4. Определение стоимости машиночаса работы ЭВМ.xlsx
@@ -232,7 +232,7 @@
                     <m:sSubPr>
                       <m:ctrlPr>
                         <a:rPr lang="ru-RU" sz="1400" i="1" baseline="0">
-                          <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
@@ -275,7 +275,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -344,7 +344,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1400" i="1" baseline="0">
-                          <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
@@ -354,7 +354,7 @@
                         <m:sSubPr>
                           <m:ctrlPr>
                             <a:rPr lang="en-US" sz="1400" i="1" baseline="0">
-                              <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
@@ -393,7 +393,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -448,7 +448,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -521,7 +521,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -594,7 +594,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -654,7 +654,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -761,10 +761,17 @@
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
-                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>_мч</a:t>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>мч</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1400" baseline="0">
@@ -791,11 +798,23 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_э</a:t>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>э</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1400" baseline="0">
@@ -825,7 +844,7 @@
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1400" i="0" baseline="0">
-                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="Cambria Math"/>
                   <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>(</a:t>
@@ -835,7 +854,14 @@
                   <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝐴_</a:t>
+                <a:t>𝐴</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
@@ -862,11 +888,23 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_эвм+</a:t>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>эвм+</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
@@ -886,11 +924,23 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_пл "</a:t>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>пл "</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1400" i="0" baseline="0">
@@ -914,7 +964,19 @@
                   <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>+" </a:t>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
@@ -934,11 +996,23 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_пл "</a:t>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>пл "</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1400" i="0" baseline="0">
@@ -962,7 +1036,19 @@
                   <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>+" </a:t>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
@@ -982,11 +1068,23 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_ар "</a:t>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ар "</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1400" i="0" baseline="0">
@@ -1001,28 +1099,64 @@
                 <a:t>   </a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="ru-RU" sz="1400" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="en-US" sz="1400" i="0" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" )/(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Ф_эвм "</a:t>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Ф</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>эвм "</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1400" i="0" baseline="0">
@@ -1037,16 +1171,28 @@
                 <a:t> </a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="ru-RU" sz="1400" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="en-US" sz="1400" i="0" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" )</a:t>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1400">
                 <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
@@ -1067,8 +1213,8 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1813560" cy="311496"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -1114,7 +1260,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1169,7 +1315,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1212,7 +1358,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1293,7 +1439,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -1586,8 +1732,8 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3368040" cy="517578"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -1623,6 +1769,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1637,7 +1784,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1692,7 +1839,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1747,7 +1894,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1802,7 +1949,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1857,7 +2004,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1872,7 +2019,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1975,7 +2122,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2044,7 +2191,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2059,7 +2206,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2150,7 +2297,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -2433,8 +2580,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1813560" cy="340029"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -2480,7 +2627,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2535,7 +2682,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2619,7 +2766,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2691,7 +2838,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -2830,8 +2977,8 @@
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3368040" cy="517578"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -2867,6 +3014,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2881,7 +3029,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2936,7 +3084,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2991,7 +3139,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3046,7 +3194,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3101,7 +3249,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3116,7 +3264,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3219,7 +3367,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3288,7 +3436,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3303,7 +3451,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3394,7 +3542,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -3845,8 +3993,8 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1813560" cy="340029"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -3892,7 +4040,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3947,7 +4095,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4031,7 +4179,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4115,7 +4263,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -4326,8 +4474,8 @@
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3710940" cy="327077"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -4373,7 +4521,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4428,7 +4576,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4483,7 +4631,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4538,7 +4686,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4608,7 +4756,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4663,7 +4811,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4762,7 +4910,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -5009,8 +5157,8 @@
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1813560" cy="302840"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13"/>
@@ -5056,7 +5204,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5126,7 +5274,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5196,7 +5344,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5268,7 +5416,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13"/>
@@ -5740,7 +5888,7 @@
   <dimension ref="A5:W26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
